--- a/data/dat_resp.xlsx
+++ b/data/dat_resp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Manure_surf_resp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-SurfResp-Paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2006" documentId="13_ncr:1_{93F424B0-673A-4CB7-BE42-153A15111E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32C8DB80-5CA0-46B2-AC9D-B04CE391578F}"/>
+  <xr:revisionPtr revIDLastSave="2010" documentId="13_ncr:1_{93F424B0-673A-4CB7-BE42-153A15111E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8697A8-14B1-4BF3-A66D-BC9670F281C2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="960" firstSheet="15" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="960" firstSheet="15" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="08-06-2022" sheetId="3" r:id="rId1"/>
@@ -628,10 +628,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7353,12 +7349,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:L375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G175" sqref="G175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
@@ -20474,7 +20472,7 @@
         <v>895</v>
       </c>
       <c r="F374">
-        <f t="shared" si="28"/>
+        <f>(B374-0.009)/0.9475</f>
         <v>5.9102902374670183E-2</v>
       </c>
       <c r="G374">
@@ -20531,7 +20529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:BA724"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I679" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -80784,7 +80782,7 @@
         <v>10</v>
       </c>
       <c r="D709">
-        <f>(AH709-AG709)/(AH21-AG21)*D21</f>
+        <f t="shared" ref="D709:D724" si="272">(AH709-AG709)/(AH21-AG21)*D21</f>
         <v>999.13895178561097</v>
       </c>
       <c r="G709">
@@ -80889,34 +80887,34 @@
         <v>34</v>
       </c>
       <c r="AQ709">
-        <f t="shared" ref="AQ709:AQ724" si="272">0.61094*EXP(17.625*AP709/(243.04+AP709))</f>
+        <f t="shared" ref="AQ709:AQ724" si="273">0.61094*EXP(17.625*AP709/(243.04+AP709))</f>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR709">
-        <f t="shared" ref="AR709:AR724" si="273">250-AF709</f>
+        <f t="shared" ref="AR709:AR724" si="274">250-AF709</f>
         <v>77.22999999999999</v>
       </c>
       <c r="AS709">
         <v>1010</v>
       </c>
       <c r="AT709">
-        <f t="shared" ref="AT709:AT724" si="274">AM709/AR709*AS709+AS709</f>
+        <f t="shared" ref="AT709:AT724" si="275">AM709/AR709*AS709+AS709</f>
         <v>2533.5659717726276</v>
       </c>
       <c r="AU709">
-        <f t="shared" ref="AU709:AU724" si="275">18.02*(AQ709/(AT709/10-AQ709)*1/22300)</f>
+        <f t="shared" ref="AU709:AU724" si="276">18.02*(AQ709/(AT709/10-AQ709)*1/22300)</f>
         <v>1.7310922751223239E-5</v>
       </c>
       <c r="AV709">
-        <f t="shared" ref="AV709:AV724" si="276">(AI709-AJ709)/AM709-AU709</f>
+        <f t="shared" ref="AV709:AV724" si="277">(AI709-AJ709)/AM709-AU709</f>
         <v>2.1286118240298928E-3</v>
       </c>
       <c r="AW709">
-        <f t="shared" ref="AW709:AW724" si="277">AV709*22300</f>
+        <f t="shared" ref="AW709:AW724" si="278">AV709*22300</f>
         <v>47.46804367586661</v>
       </c>
       <c r="AX709">
-        <f t="shared" ref="AX709:AX724" si="278">(44.01-AW709)/(44.01-16.04)</f>
+        <f t="shared" ref="AX709:AX724" si="279">(44.01-AW709)/(44.01-16.04)</f>
         <v>-0.12363402487903513</v>
       </c>
     </row>
@@ -80931,7 +80929,7 @@
         <v>10</v>
       </c>
       <c r="D710">
-        <f>(AH710-AG710)/(AH22-AG22)*D22</f>
+        <f t="shared" si="272"/>
         <v>987.6157735870753</v>
       </c>
       <c r="G710">
@@ -80951,11 +80949,11 @@
         <v>10.812253175365397</v>
       </c>
       <c r="O710">
-        <f t="shared" ref="O710:O724" si="279">R710-N710</f>
+        <f t="shared" ref="O710:O724" si="280">R710-N710</f>
         <v>17.301739780125821</v>
       </c>
       <c r="P710">
-        <f t="shared" ref="P710:P724" si="280">Q710-R710</f>
+        <f t="shared" ref="P710:P724" si="281">Q710-R710</f>
         <v>17.974170135553997</v>
       </c>
       <c r="Q710">
@@ -81016,7 +81014,7 @@
         <v>318.60000000000002</v>
       </c>
       <c r="AK710">
-        <f t="shared" ref="AK710:AK724" si="281">AJ694-AI710</f>
+        <f t="shared" ref="AK710:AK724" si="282">AJ694-AI710</f>
         <v>2.4999999999977263E-2</v>
       </c>
       <c r="AL710">
@@ -81036,34 +81034,34 @@
         <v>34</v>
       </c>
       <c r="AQ710">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR710">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>76.069999999999993</v>
       </c>
       <c r="AS710">
         <v>1010</v>
       </c>
       <c r="AT710">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2828.9825161035888</v>
       </c>
       <c r="AU710">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>1.5468625346117281E-5</v>
       </c>
       <c r="AV710">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.2473050972816365E-3</v>
       </c>
       <c r="AW710">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>50.114903669380496</v>
       </c>
       <c r="AX710">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-0.21826613047481222</v>
       </c>
     </row>
@@ -81078,11 +81076,11 @@
         <v>10</v>
       </c>
       <c r="D711">
-        <f>(AH711-AG711)/(AH23-AG23)*D23</f>
+        <f t="shared" si="272"/>
         <v>1022.0873799287554</v>
       </c>
       <c r="G711">
-        <f t="shared" ref="G711:G724" si="282">H711-$H$18</f>
+        <f t="shared" ref="G711:G724" si="283">H711-$H$18</f>
         <v>455.35416666666424</v>
       </c>
       <c r="H711" s="7">
@@ -81098,11 +81096,11 @@
         <v>9.3148802512762714</v>
       </c>
       <c r="O711">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>17.559874361994382</v>
       </c>
       <c r="P711">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>18.70828425598777</v>
       </c>
       <c r="Q711">
@@ -81163,7 +81161,7 @@
         <v>308.73</v>
       </c>
       <c r="AK711">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>3.0000000000029559E-2</v>
       </c>
       <c r="AL711">
@@ -81183,34 +81181,34 @@
         <v>34</v>
       </c>
       <c r="AQ711">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR711">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>87.179999999999978</v>
       </c>
       <c r="AS711">
         <v>1010</v>
       </c>
       <c r="AT711">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>1884.684560679055</v>
       </c>
       <c r="AU711">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2.3443843493438537E-5</v>
       </c>
       <c r="AV711">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.095761454519385E-3</v>
       </c>
       <c r="AW711">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>46.735480435782286</v>
       </c>
       <c r="AX711">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-9.7442990196005996E-2</v>
       </c>
     </row>
@@ -81225,11 +81223,11 @@
         <v>10</v>
       </c>
       <c r="D712">
-        <f>(AH712-AG712)/(AH24-AG24)*D24</f>
+        <f t="shared" si="272"/>
         <v>1011.8194462488686</v>
       </c>
       <c r="G712">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H712" s="7">
@@ -81245,11 +81243,11 @@
         <v>9.8884451177528163</v>
       </c>
       <c r="O712">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>18.675113620712935</v>
       </c>
       <c r="P712">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>20.506817242804665</v>
       </c>
       <c r="Q712">
@@ -81310,7 +81308,7 @@
         <v>332.15</v>
       </c>
       <c r="AK712">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>4.0000000000020464E-2</v>
       </c>
       <c r="AL712">
@@ -81330,34 +81328,34 @@
         <v>34</v>
       </c>
       <c r="AQ712">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR712">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>62.19</v>
       </c>
       <c r="AS712">
         <v>1010</v>
       </c>
       <c r="AT712">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2991.3474835182506</v>
       </c>
       <c r="AU712">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>1.4613831970909077E-5</v>
       </c>
       <c r="AV712">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>1.7886648565539045E-3</v>
       </c>
       <c r="AW712">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>39.887226301152069</v>
       </c>
       <c r="AX712">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.14739984622266461</v>
       </c>
     </row>
@@ -81372,11 +81370,11 @@
         <v>20</v>
       </c>
       <c r="D713">
-        <f>(AH713-AG713)/(AH25-AG25)*D25</f>
+        <f t="shared" si="272"/>
         <v>801.34129034034584</v>
       </c>
       <c r="G713">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H713" s="7">
@@ -81392,11 +81390,11 @@
         <v>11.993337034980232</v>
       </c>
       <c r="O713">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>18.223209328151558</v>
       </c>
       <c r="P713">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>16.601887840088423</v>
       </c>
       <c r="Q713">
@@ -81457,7 +81455,7 @@
         <v>326.49</v>
       </c>
       <c r="AK713">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>2.9999999999972715E-2</v>
       </c>
       <c r="AL713">
@@ -81477,34 +81475,34 @@
         <v>34</v>
       </c>
       <c r="AQ713">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR713">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>68.419999999999987</v>
       </c>
       <c r="AS713">
         <v>1010</v>
       </c>
       <c r="AT713">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>1689.0412160187082</v>
       </c>
       <c r="AU713">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2.6247572420560352E-5</v>
       </c>
       <c r="AV713">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.5824480797534514E-3</v>
       </c>
       <c r="AW713">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>57.588592178501969</v>
       </c>
       <c r="AX713">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-0.48546986694679911</v>
       </c>
     </row>
@@ -81519,11 +81517,11 @@
         <v>20</v>
       </c>
       <c r="D714">
-        <f>(AH714-AG714)/(AH26-AG26)*D26</f>
+        <f t="shared" si="272"/>
         <v>801.10570416253688</v>
       </c>
       <c r="G714">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H714" s="7">
@@ -81539,11 +81537,11 @@
         <v>11.669680530439381</v>
       </c>
       <c r="O714">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>17.106690777577668</v>
       </c>
       <c r="P714">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>16.913803496081538</v>
       </c>
       <c r="Q714">
@@ -81604,7 +81602,7 @@
         <v>347.13</v>
       </c>
       <c r="AK714">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>3.999999999996362E-2</v>
       </c>
       <c r="AL714">
@@ -81624,34 +81622,34 @@
         <v>34</v>
       </c>
       <c r="AQ714">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR714">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>48.199999999999989</v>
       </c>
       <c r="AS714">
         <v>1010</v>
       </c>
       <c r="AT714">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2413.941908713693</v>
       </c>
       <c r="AU714">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>1.8188082449308112E-5</v>
       </c>
       <c r="AV714">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.3698716190436028E-3</v>
       </c>
       <c r="AW714">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>52.84813710467234</v>
       </c>
       <c r="AX714">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-0.31598631049954745</v>
       </c>
     </row>
@@ -81666,11 +81664,11 @@
         <v>20</v>
       </c>
       <c r="D715">
-        <f>(AH715-AG715)/(AH27-AG27)*D27</f>
+        <f t="shared" si="272"/>
         <v>806.36694486423244</v>
       </c>
       <c r="G715">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H715" s="7">
@@ -81686,11 +81684,11 @@
         <v>11.796643632773627</v>
       </c>
       <c r="O715">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>17.139684106613963</v>
       </c>
       <c r="P715">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>16.572063178677592</v>
       </c>
       <c r="Q715">
@@ -81751,7 +81749,7 @@
         <v>349.6</v>
       </c>
       <c r="AK715">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>2.4999999999977263E-2</v>
       </c>
       <c r="AL715">
@@ -81771,34 +81769,34 @@
         <v>34</v>
       </c>
       <c r="AQ715">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR715">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>44.870000000000005</v>
       </c>
       <c r="AS715">
         <v>1010</v>
       </c>
       <c r="AT715">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2405.5872520615112</v>
       </c>
       <c r="AU715">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>1.8252676879879513E-5</v>
       </c>
       <c r="AV715">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.2398118392489325E-3</v>
       </c>
       <c r="AW715">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>49.947804015251194</v>
       </c>
       <c r="AX715">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-0.21229188470687149</v>
       </c>
     </row>
@@ -81813,11 +81811,11 @@
         <v>20</v>
       </c>
       <c r="D716">
-        <f>(AH716-AG716)/(AH28-AG28)*D28</f>
+        <f t="shared" si="272"/>
         <v>808.4126111892042</v>
       </c>
       <c r="G716">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H716" s="7">
@@ -81833,11 +81831,11 @@
         <v>11.109818520241705</v>
       </c>
       <c r="O716">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>16.949744067008083</v>
       </c>
       <c r="P716">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>15.867845509539123</v>
       </c>
       <c r="Q716">
@@ -81898,7 +81896,7 @@
         <v>323.23</v>
       </c>
       <c r="AK716">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>1.999999999998181E-2</v>
       </c>
       <c r="AL716">
@@ -81918,34 +81916,34 @@
         <v>34</v>
       </c>
       <c r="AQ716">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR716">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>72.149999999999977</v>
       </c>
       <c r="AS716">
         <v>1010</v>
       </c>
       <c r="AT716">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2717.8309078309085</v>
       </c>
       <c r="AU716">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>1.6113863654528556E-5</v>
       </c>
       <c r="AV716">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>1.4592959724111011E-3</v>
       </c>
       <c r="AW716">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>32.542300184767555</v>
       </c>
       <c r="AX716">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.40999999339408094</v>
       </c>
     </row>
@@ -81960,11 +81958,11 @@
         <v>10</v>
       </c>
       <c r="D717">
-        <f>(AH717-AG717)/(AH29-AG29)*D29</f>
+        <f t="shared" si="272"/>
         <v>875.11597804672101</v>
       </c>
       <c r="G717">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H717" s="7">
@@ -81980,11 +81978,11 @@
         <v>10.353535353535692</v>
       </c>
       <c r="O717">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>16.850321395775822</v>
       </c>
       <c r="P717">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>17.561983471074228</v>
       </c>
       <c r="Q717">
@@ -82045,7 +82043,7 @@
         <v>285.36</v>
       </c>
       <c r="AK717">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>1.999999999998181E-2</v>
       </c>
       <c r="AL717">
@@ -82065,34 +82063,34 @@
         <v>34</v>
       </c>
       <c r="AQ717">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR717">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>107.88000000000002</v>
       </c>
       <c r="AS717">
         <v>1010</v>
       </c>
       <c r="AT717">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2072.6158694846126</v>
       </c>
       <c r="AU717">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2.1262175602251423E-5</v>
       </c>
       <c r="AV717">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>1.8289580887147488E-3</v>
       </c>
       <c r="AW717">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>40.785765378338894</v>
       </c>
       <c r="AX717">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.11527474514340737</v>
       </c>
     </row>
@@ -82107,11 +82105,11 @@
         <v>10</v>
       </c>
       <c r="D718">
-        <f>(AH718-AG718)/(AH30-AG30)*D30</f>
+        <f t="shared" si="272"/>
         <v>882.13672848555916</v>
       </c>
       <c r="G718">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H718" s="7">
@@ -82127,11 +82125,11 @@
         <v>9.3041978148360833</v>
       </c>
       <c r="O718">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>15.72167912593417</v>
       </c>
       <c r="P718">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>16.791259344450921</v>
       </c>
       <c r="Q718">
@@ -82192,7 +82190,7 @@
         <v>280.13</v>
       </c>
       <c r="AK718">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>5.0000000000011369E-2</v>
       </c>
       <c r="AL718">
@@ -82212,34 +82210,34 @@
         <v>34</v>
       </c>
       <c r="AQ718">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR718">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>113.57999999999998</v>
       </c>
       <c r="AS718">
         <v>1010</v>
       </c>
       <c r="AT718">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2072.6430709631977</v>
       </c>
       <c r="AU718">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2.1261889214097085E-5</v>
       </c>
       <c r="AV718">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>1.9034243032546743E-3</v>
       </c>
       <c r="AW718">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>42.446361962579239</v>
       </c>
       <c r="AX718">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>5.5904112885976368E-2</v>
       </c>
     </row>
@@ -82254,11 +82252,11 @@
         <v>10</v>
       </c>
       <c r="D719">
-        <f>(AH719-AG719)/(AH31-AG31)*D31</f>
+        <f t="shared" si="272"/>
         <v>878.84046160373362</v>
       </c>
       <c r="G719">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H719" s="7">
@@ -82274,11 +82272,11 @@
         <v>10.31850172969115</v>
       </c>
       <c r="O719">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>16.282953596564241</v>
       </c>
       <c r="P719">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>16.247166885363512</v>
       </c>
       <c r="Q719">
@@ -82339,7 +82337,7 @@
         <v>262.52999999999997</v>
       </c>
       <c r="AK719">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>3.4999999999968168E-2</v>
       </c>
       <c r="AL719">
@@ -82359,34 +82357,34 @@
         <v>34</v>
       </c>
       <c r="AQ719">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR719">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>132.14999999999998</v>
       </c>
       <c r="AS719">
         <v>1010</v>
       </c>
       <c r="AT719">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>1896.568293605751</v>
       </c>
       <c r="AU719">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2.3292712080578354E-5</v>
       </c>
       <c r="AV719">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.2180865982646607E-3</v>
       </c>
       <c r="AW719">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>49.463331141301936</v>
       </c>
       <c r="AX719">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-0.194970723679011</v>
       </c>
     </row>
@@ -82401,11 +82399,11 @@
         <v>10</v>
       </c>
       <c r="D720">
-        <f>(AH720-AG720)/(AH32-AG32)*D32</f>
+        <f t="shared" si="272"/>
         <v>865.70142099879104</v>
       </c>
       <c r="G720">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H720" s="7">
@@ -82421,11 +82419,11 @@
         <v>10.722364650882412</v>
       </c>
       <c r="O720">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>18.066656612879122</v>
       </c>
       <c r="P720">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>17.448348665359191</v>
       </c>
       <c r="Q720">
@@ -82486,7 +82484,7 @@
         <v>252.42</v>
       </c>
       <c r="AK720">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>9.0000000000003411E-2</v>
       </c>
       <c r="AL720">
@@ -82506,34 +82504,34 @@
         <v>34</v>
       </c>
       <c r="AQ720">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR720">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>142.47</v>
       </c>
       <c r="AS720">
         <v>1010</v>
       </c>
       <c r="AT720">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>2119.4616410472381</v>
       </c>
       <c r="AU720">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>2.078013952486621E-5</v>
       </c>
       <c r="AV720">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>1.9600505314016658E-3</v>
       </c>
       <c r="AW720">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>43.709126850257149</v>
       </c>
       <c r="AX720">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>1.075699498544328E-2</v>
       </c>
     </row>
@@ -82548,11 +82546,11 @@
         <v>20</v>
       </c>
       <c r="D721">
-        <f>(AH721-AG721)/(AH33-AG33)*D33</f>
+        <f t="shared" si="272"/>
         <v>719.87094215480238</v>
       </c>
       <c r="G721">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H721" s="7">
@@ -82568,11 +82566,11 @@
         <v>12.897968053895134</v>
       </c>
       <c r="O721">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>17.700749755514558</v>
       </c>
       <c r="P721">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>16.103444528958249</v>
       </c>
       <c r="Q721">
@@ -82633,7 +82631,7 @@
         <v>256.52999999999997</v>
       </c>
       <c r="AK721">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>2.0000000000038654E-2</v>
       </c>
       <c r="AL721">
@@ -82653,34 +82651,34 @@
         <v>34</v>
       </c>
       <c r="AQ721">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR721">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>140.57</v>
       </c>
       <c r="AS721">
         <v>1010</v>
       </c>
       <c r="AT721">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>1326.1414242014655</v>
       </c>
       <c r="AU721">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>3.3730059078597541E-5</v>
       </c>
       <c r="AV721">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.4662699409217126E-3</v>
       </c>
       <c r="AW721">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>54.997819682554194</v>
       </c>
       <c r="AX721">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-0.39284303477133348</v>
       </c>
     </row>
@@ -82695,11 +82693,11 @@
         <v>20</v>
       </c>
       <c r="D722">
-        <f>(AH722-AG722)/(AH34-AG34)*D34</f>
+        <f t="shared" si="272"/>
         <v>753.84087701690726</v>
       </c>
       <c r="G722">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H722" s="7">
@@ -82715,11 +82713,11 @@
         <v>11.721089405389016</v>
       </c>
       <c r="O722">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>17.938114929417544</v>
       </c>
       <c r="P722">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>15.870526165692276</v>
       </c>
       <c r="Q722">
@@ -82780,7 +82778,7 @@
         <v>276.73</v>
       </c>
       <c r="AK722">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>2.0000000000038654E-2</v>
       </c>
       <c r="AL722">
@@ -82800,34 +82798,34 @@
         <v>34</v>
       </c>
       <c r="AQ722">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR722">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>120.47000000000003</v>
       </c>
       <c r="AS722">
         <v>1010</v>
       </c>
       <c r="AT722">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>1336.9693699676268</v>
       </c>
       <c r="AU722">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>3.3445577038001558E-5</v>
       </c>
       <c r="AV722">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.7870672434737111E-3</v>
       </c>
       <c r="AW722">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>62.151599529463759</v>
       </c>
       <c r="AX722">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-0.64860920734586203</v>
       </c>
     </row>
@@ -82842,11 +82840,11 @@
         <v>20</v>
       </c>
       <c r="D723">
-        <f>(AH723-AG723)/(AH35-AG35)*D35</f>
+        <f t="shared" si="272"/>
         <v>722.57055108096642</v>
       </c>
       <c r="G723">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H723" s="7">
@@ -82862,11 +82860,11 @@
         <v>11.894816783747798</v>
       </c>
       <c r="O723">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>18.302639073476207</v>
       </c>
       <c r="P723">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>15.274349724701121</v>
       </c>
       <c r="Q723">
@@ -82927,7 +82925,7 @@
         <v>240.37</v>
       </c>
       <c r="AK723">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>9.9999999999909051E-3</v>
       </c>
       <c r="AL723">
@@ -82947,34 +82945,34 @@
         <v>34</v>
       </c>
       <c r="AQ723">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR723">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>155.64000000000001</v>
       </c>
       <c r="AS723">
         <v>1010</v>
       </c>
       <c r="AT723">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>1152.7653559496273</v>
       </c>
       <c r="AU723">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>3.9048205914917092E-5</v>
       </c>
       <c r="AV723">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.6882245213579138E-3</v>
       </c>
       <c r="AW723">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>59.94740682628148</v>
       </c>
       <c r="AX723">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-0.56980360480091108</v>
       </c>
     </row>
@@ -82989,11 +82987,11 @@
         <v>20</v>
       </c>
       <c r="D724">
-        <f>(AH724-AG724)/(AH36-AG36)*D36</f>
+        <f t="shared" si="272"/>
         <v>701.88878688524585</v>
       </c>
       <c r="G724">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>455.35416666666424</v>
       </c>
       <c r="H724" s="7">
@@ -83009,11 +83007,11 @@
         <v>12.235126324368094</v>
       </c>
       <c r="O724">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>18.602281988590128</v>
       </c>
       <c r="P724">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>16.045232273838877</v>
       </c>
       <c r="Q724">
@@ -83074,7 +83072,7 @@
         <v>232.53</v>
       </c>
       <c r="AK724">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>1.999999999998181E-2</v>
       </c>
       <c r="AL724">
@@ -83094,34 +83092,34 @@
         <v>34</v>
       </c>
       <c r="AQ724">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>5.3137007027131622</v>
       </c>
       <c r="AR724">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>164.6</v>
       </c>
       <c r="AS724">
         <v>1010</v>
       </c>
       <c r="AT724">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>1243.1713244228433</v>
       </c>
       <c r="AU724">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>3.6081744510169405E-5</v>
       </c>
       <c r="AV724">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>2.3323393081214993E-3</v>
       </c>
       <c r="AW724">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>52.011166571109435</v>
       </c>
       <c r="AX724">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>-0.28606244444438461</v>
       </c>
     </row>
@@ -89416,26 +89414,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="51017e06-3185-4484-8ddc-2b23098c8f10" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0cd6032e-4b27-47f4-bb02-403eeb79ffb0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100010BCB8FDA3789478577C31581FA3B2F" ma:contentTypeVersion="14" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="dbe274e19edd2862f4257cb5a3d65833">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0cd6032e-4b27-47f4-bb02-403eeb79ffb0" xmlns:ns3="51017e06-3185-4484-8ddc-2b23098c8f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a594d2197080b0687313b9717b0496b" ns2:_="" ns3:_="">
     <xsd:import namespace="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
@@ -89652,10 +89630,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="51017e06-3185-4484-8ddc-2b23098c8f10" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0cd6032e-4b27-47f4-bb02-403eeb79ffb0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{616B4242-4CA3-43CB-B90F-76F2DAA50889}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1129099-9BEA-446C-A0D2-E0CE8800516F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
+    <ds:schemaRef ds:uri="51017e06-3185-4484-8ddc-2b23098c8f10"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -89672,20 +89681,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1129099-9BEA-446C-A0D2-E0CE8800516F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{616B4242-4CA3-43CB-B90F-76F2DAA50889}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0cd6032e-4b27-47f4-bb02-403eeb79ffb0"/>
-    <ds:schemaRef ds:uri="51017e06-3185-4484-8ddc-2b23098c8f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>